--- a/Projeto 01/Validação.xlsx
+++ b/Projeto 01/Validação.xlsx
@@ -607,7 +607,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lula</t>
+          <t>Dilma</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1169,11 +1169,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Temer</t>
+          <t>Lula</t>
         </is>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1559,16 +1559,16 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>Dilma</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>Temer</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Temer</t>
-        </is>
-      </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
